--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721BC70C-6E6E-44DE-963A-C0C0EA18E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DDF6A1-F768-4FFF-8864-28DDA5AE6606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,6 +353,10 @@
   </si>
   <si>
     <t>2023-07-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-08-31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +730,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1789,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>65</v>
@@ -1819,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -1866,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DDF6A1-F768-4FFF-8864-28DDA5AE6606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C750A8F0-14C0-4798-88B2-FBA7FAE804CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023-08-31</t>
+    <t>2023-09-17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C750A8F0-14C0-4798-88B2-FBA7FAE804CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10243189-CD15-4C2C-8CE8-D0D1C139DDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -356,7 +356,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023-09-17</t>
+    <t>2023-11-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10243189-CD15-4C2C-8CE8-D0D1C139DDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AEEDAD-825D-49AE-A0E4-8943608C3C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023-11-15</t>
+    <t>2024-01-02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AEEDAD-825D-49AE-A0E4-8943608C3C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7D1E13-4594-4B90-BF05-449CCFE17CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-02-13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7D1E13-4594-4B90-BF05-449CCFE17CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BECA462-87B6-4E20-9ED2-4C359D27DC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-02-13</t>
+    <t>2024-03-26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BECA462-87B6-4E20-9ED2-4C359D27DC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5257C31-2D04-439F-A81F-1D0299A90700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -356,7 +356,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-03-26</t>
+    <t>2024-05-07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,9 +431,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -471,7 +471,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -577,7 +577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -719,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -730,7 +730,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5257C31-2D04-439F-A81F-1D0299A90700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A3FFB-E9AB-432D-B2F1-4D28B1AEF1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -356,7 +356,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-05-07</t>
+    <t>2024-05-14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A3FFB-E9AB-432D-B2F1-4D28B1AEF1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB15A3E6-7FC7-421A-9953-D4B015550EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -356,7 +356,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-05-14</t>
+    <t>2024-06-25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB15A3E6-7FC7-421A-9953-D4B015550EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC77DDE-2050-4164-A8CB-41ED23C05FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -356,7 +356,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-06-25</t>
+    <t>2024-08-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
